--- a/MonthlyStatement/assets/FileImport/DanhSachNguoiDung-Import.xlsx
+++ b/MonthlyStatement/assets/FileImport/DanhSachNguoiDung-Import.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\darkr\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63F1F88A-C341-4D99-8122-2DDEB7B69FAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B3EB87-BC92-4E59-B33E-0D9BBF3C46E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{D863059B-1735-4B2D-BB81-759A3D9E481F}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <r>
       <t xml:space="preserve">DANH SÁCH NHÂN VIÊN
@@ -87,34 +87,22 @@
     <t>Bộ môn</t>
   </si>
   <si>
-    <t>Giảng viên - Nhân viên</t>
-  </si>
-  <si>
     <t>Chưa phân quyền</t>
   </si>
   <si>
     <t>Nguyễn Huy Cường</t>
   </si>
   <si>
-    <t>Phạm Hồng Thắng</t>
-  </si>
-  <si>
-    <t>Lê Xuân Hiệp</t>
-  </si>
-  <si>
-    <t>hiep.197pm83843@vlu.edu.vn</t>
-  </si>
-  <si>
     <t>Công nghệ thông tin</t>
   </si>
   <si>
     <t>Vai trò</t>
   </si>
   <si>
-    <t>tan.197ct22539@vanlanguni.vn</t>
-  </si>
-  <si>
-    <t>tuan.197pm21996@vanlanguni.vn</t>
+    <t>dung.197pm21901@vanlanguni.vn</t>
+  </si>
+  <si>
+    <t>Nhân viên - Giảng viên</t>
   </si>
 </sst>
 </file>
@@ -297,7 +285,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -336,16 +324,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -690,8 +669,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{AB9EF11F-0F98-4C6F-8F92-9C38C4F4C534}" name="Table4" displayName="Table4" ref="A2:E5" totalsRowShown="0" headerRowDxfId="15" headerRowBorderDxfId="14" tableBorderDxfId="13" totalsRowBorderDxfId="12">
-  <autoFilter ref="A2:E5" xr:uid="{AB9EF11F-0F98-4C6F-8F92-9C38C4F4C534}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{AB9EF11F-0F98-4C6F-8F92-9C38C4F4C534}" name="Table4" displayName="Table4" ref="A2:E3" totalsRowShown="0" headerRowDxfId="15" headerRowBorderDxfId="14" tableBorderDxfId="13" totalsRowBorderDxfId="12">
+  <autoFilter ref="A2:E3" xr:uid="{AB9EF11F-0F98-4C6F-8F92-9C38C4F4C534}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{BD8030A3-5E0B-43AD-8C5A-13ACC4A69AFB}" name="STT" dataDxfId="11"/>
     <tableColumn id="2" xr3:uid="{B7CC9FE9-4234-4AE1-87BF-F151D48C284C}" name="Họ và Tên" dataDxfId="10"/>
@@ -1011,10 +990,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A55C3C43-D4B0-4F2A-9605-24C832C66003}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1023,17 +1002,17 @@
     <col min="2" max="2" width="17.28515625" customWidth="1"/>
     <col min="3" max="3" width="32.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
@@ -1049,7 +1028,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1057,50 +1036,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="E3" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="15">
-        <v>3</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="17" t="s">
         <v>15</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1109,19 +1054,17 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E5" xr:uid="{473363A2-96C3-48E0-A81E-BBB7A510E3D1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3" xr:uid="{473363A2-96C3-48E0-A81E-BBB7A510E3D1}">
       <formula1>Chucdanh</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" xr:uid="{C1151826-67DF-4CEC-9090-F88781495C60}"/>
-    <hyperlink ref="C4" r:id="rId2" xr:uid="{731F153D-56B9-4530-97EB-554C49031DB4}"/>
-    <hyperlink ref="C5" r:id="rId3" xr:uid="{E4D44770-3E6D-4E35-93DC-4CA84A5EF0C8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1131,7 +1074,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1141,10 +1084,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="20"/>
+      <c r="B1" s="17"/>
     </row>
     <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -1191,7 +1134,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1199,7 +1142,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/MonthlyStatement/assets/FileImport/DanhSachNguoiDung-Import.xlsx
+++ b/MonthlyStatement/assets/FileImport/DanhSachNguoiDung-Import.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\darkr\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\darkr\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B3EB87-BC92-4E59-B33E-0D9BBF3C46E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{697DA1D1-970A-4656-9E66-382421190B22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{D863059B-1735-4B2D-BB81-759A3D9E481F}"/>
   </bookViews>
@@ -90,19 +90,19 @@
     <t>Chưa phân quyền</t>
   </si>
   <si>
-    <t>Nguyễn Huy Cường</t>
-  </si>
-  <si>
     <t>Công nghệ thông tin</t>
   </si>
   <si>
     <t>Vai trò</t>
   </si>
   <si>
-    <t>dung.197pm21901@vanlanguni.vn</t>
-  </si>
-  <si>
     <t>Nhân viên - Giảng viên</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tuan.197pm21996@vanlanguni.vn	</t>
+  </si>
+  <si>
+    <t>Tuấn</t>
   </si>
 </sst>
 </file>
@@ -674,7 +674,7 @@
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{BD8030A3-5E0B-43AD-8C5A-13ACC4A69AFB}" name="STT" dataDxfId="11"/>
     <tableColumn id="2" xr3:uid="{B7CC9FE9-4234-4AE1-87BF-F151D48C284C}" name="Họ và Tên" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{346C4246-93D0-4B3F-838F-C239E287AF28}" name="Email" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{346C4246-93D0-4B3F-838F-C239E287AF28}" name="Email" dataDxfId="9" dataCellStyle="Hyperlink"/>
     <tableColumn id="4" xr3:uid="{55494398-1BA4-4E7C-9A41-E5921E957345}" name="Khoa" dataDxfId="8"/>
     <tableColumn id="12" xr3:uid="{A8AC31BB-0627-413E-BF2A-A9A97551D1AB}" name="Vai trò" dataDxfId="7"/>
   </tableColumns>
@@ -993,7 +993,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1028,7 +1028,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1134,7 +1134,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">

--- a/MonthlyStatement/assets/FileImport/DanhSachNguoiDung-Import.xlsx
+++ b/MonthlyStatement/assets/FileImport/DanhSachNguoiDung-Import.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\darkr\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{697DA1D1-970A-4656-9E66-382421190B22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD65B3F0-AAE2-4D17-A8F7-49CB665609E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{D863059B-1735-4B2D-BB81-759A3D9E481F}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <r>
       <t xml:space="preserve">DANH SÁCH NHÂN VIÊN
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>Tuấn</t>
+  </si>
+  <si>
+    <t>Lập trình mobile</t>
   </si>
 </sst>
 </file>
@@ -341,7 +344,26 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="17">
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -669,25 +691,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{AB9EF11F-0F98-4C6F-8F92-9C38C4F4C534}" name="Table4" displayName="Table4" ref="A2:E3" totalsRowShown="0" headerRowDxfId="15" headerRowBorderDxfId="14" tableBorderDxfId="13" totalsRowBorderDxfId="12">
-  <autoFilter ref="A2:E3" xr:uid="{AB9EF11F-0F98-4C6F-8F92-9C38C4F4C534}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{BD8030A3-5E0B-43AD-8C5A-13ACC4A69AFB}" name="STT" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{B7CC9FE9-4234-4AE1-87BF-F151D48C284C}" name="Họ và Tên" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{346C4246-93D0-4B3F-838F-C239E287AF28}" name="Email" dataDxfId="9" dataCellStyle="Hyperlink"/>
-    <tableColumn id="4" xr3:uid="{55494398-1BA4-4E7C-9A41-E5921E957345}" name="Khoa" dataDxfId="8"/>
-    <tableColumn id="12" xr3:uid="{A8AC31BB-0627-413E-BF2A-A9A97551D1AB}" name="Vai trò" dataDxfId="7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{AB9EF11F-0F98-4C6F-8F92-9C38C4F4C534}" name="Table4" displayName="Table4" ref="A2:F3" totalsRowShown="0" headerRowDxfId="16" headerRowBorderDxfId="15" tableBorderDxfId="14" totalsRowBorderDxfId="13">
+  <autoFilter ref="A2:F3" xr:uid="{AB9EF11F-0F98-4C6F-8F92-9C38C4F4C534}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{BD8030A3-5E0B-43AD-8C5A-13ACC4A69AFB}" name="STT" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{B7CC9FE9-4234-4AE1-87BF-F151D48C284C}" name="Họ và Tên" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{346C4246-93D0-4B3F-838F-C239E287AF28}" name="Email" dataDxfId="10" dataCellStyle="Hyperlink"/>
+    <tableColumn id="4" xr3:uid="{55494398-1BA4-4E7C-9A41-E5921E957345}" name="Khoa" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{D3840594-A024-4955-8E82-03847C02179D}" name="Bộ môn" dataDxfId="0"/>
+    <tableColumn id="12" xr3:uid="{A8AC31BB-0627-413E-BF2A-A9A97551D1AB}" name="Vai trò" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="Kiểu Bảng 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6A2D9191-4CE9-4E69-B805-9A4FDC6A0840}" name="Table3" displayName="Table3" ref="A2:B8" totalsRowShown="0" headerRowDxfId="6" dataDxfId="4" headerRowBorderDxfId="5" tableBorderDxfId="3" totalsRowBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6A2D9191-4CE9-4E69-B805-9A4FDC6A0840}" name="Table3" displayName="Table3" ref="A2:B8" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
   <autoFilter ref="A2:B8" xr:uid="{6A2D9191-4CE9-4E69-B805-9A4FDC6A0840}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{D2BE2BAF-1CF2-404E-A970-E88DD633B934}" name="STT" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{DE96B05D-46C5-4461-B6A5-8698828DDFE5}" name="Tên chức danh" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{D2BE2BAF-1CF2-404E-A970-E88DD633B934}" name="STT" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{DE96B05D-46C5-4461-B6A5-8698828DDFE5}" name="Tên chức danh" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="Kiểu Bảng 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -982,7 +1005,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -990,10 +1013,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A55C3C43-D4B0-4F2A-9605-24C832C66003}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1002,10 +1025,11 @@
     <col min="2" max="2" width="17.28515625" customWidth="1"/>
     <col min="3" max="3" width="32.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="6" max="6" width="21.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -1013,8 +1037,9 @@
       <c r="C1" s="16"/>
       <c r="D1" s="16"/>
       <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
     </row>
-    <row r="2" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
@@ -1028,10 +1053,13 @@
         <v>6</v>
       </c>
       <c r="E2" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>1</v>
       </c>
@@ -1045,16 +1073,19 @@
         <v>11</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3" xr:uid="{473363A2-96C3-48E0-A81E-BBB7A510E3D1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3" xr:uid="{473363A2-96C3-48E0-A81E-BBB7A510E3D1}">
       <formula1>Chucdanh</formula1>
     </dataValidation>
   </dataValidations>

--- a/MonthlyStatement/assets/FileImport/DanhSachNguoiDung-Import.xlsx
+++ b/MonthlyStatement/assets/FileImport/DanhSachNguoiDung-Import.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\darkr\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD65B3F0-AAE2-4D17-A8F7-49CB665609E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F6A939-0ACF-4AD3-A6F3-1BD6A7528DCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{D863059B-1735-4B2D-BB81-759A3D9E481F}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
   <si>
     <r>
       <t xml:space="preserve">DANH SÁCH NHÂN VIÊN
@@ -87,9 +87,6 @@
     <t>Bộ môn</t>
   </si>
   <si>
-    <t>Chưa phân quyền</t>
-  </si>
-  <si>
     <t>Công nghệ thông tin</t>
   </si>
   <si>
@@ -99,13 +96,37 @@
     <t>Nhân viên - Giảng viên</t>
   </si>
   <si>
-    <t xml:space="preserve">tuan.197pm21996@vanlanguni.vn	</t>
-  </si>
-  <si>
-    <t>Tuấn</t>
-  </si>
-  <si>
-    <t>Lập trình mobile</t>
+    <t>Quản trị dự án phần mềm</t>
+  </si>
+  <si>
+    <t>Lê Hữu Hiệp</t>
+  </si>
+  <si>
+    <t>hiep.197pm31152@vanlanguni.vn</t>
+  </si>
+  <si>
+    <t>Nguyễn Đức Dũng</t>
+  </si>
+  <si>
+    <t>dung.197pm21901@vanlanguni.vn</t>
+  </si>
+  <si>
+    <t>Object Oriented Programming and C#</t>
+  </si>
+  <si>
+    <t>Trần Anh Khoa</t>
+  </si>
+  <si>
+    <t>khoa.197pm31170@vanlanguni.vn</t>
+  </si>
+  <si>
+    <t>Chưa cấp quyền</t>
+  </si>
+  <si>
+    <t>Lê Thị Lợi</t>
+  </si>
+  <si>
+    <t>loi.197pm09475@vanlanguni.vn</t>
   </si>
 </sst>
 </file>
@@ -288,7 +309,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -329,6 +350,18 @@
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -345,25 +378,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="17">
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -514,6 +528,25 @@
         </right>
         <top/>
         <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -691,26 +724,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{AB9EF11F-0F98-4C6F-8F92-9C38C4F4C534}" name="Table4" displayName="Table4" ref="A2:F3" totalsRowShown="0" headerRowDxfId="16" headerRowBorderDxfId="15" tableBorderDxfId="14" totalsRowBorderDxfId="13">
-  <autoFilter ref="A2:F3" xr:uid="{AB9EF11F-0F98-4C6F-8F92-9C38C4F4C534}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{AB9EF11F-0F98-4C6F-8F92-9C38C4F4C534}" name="Table4" displayName="Table4" ref="A2:F4" totalsRowShown="0" headerRowDxfId="16" headerRowBorderDxfId="15" tableBorderDxfId="14" totalsRowBorderDxfId="13">
+  <autoFilter ref="A2:F4" xr:uid="{AB9EF11F-0F98-4C6F-8F92-9C38C4F4C534}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{BD8030A3-5E0B-43AD-8C5A-13ACC4A69AFB}" name="STT" dataDxfId="12"/>
     <tableColumn id="2" xr3:uid="{B7CC9FE9-4234-4AE1-87BF-F151D48C284C}" name="Họ và Tên" dataDxfId="11"/>
     <tableColumn id="3" xr3:uid="{346C4246-93D0-4B3F-838F-C239E287AF28}" name="Email" dataDxfId="10" dataCellStyle="Hyperlink"/>
     <tableColumn id="4" xr3:uid="{55494398-1BA4-4E7C-9A41-E5921E957345}" name="Khoa" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{D3840594-A024-4955-8E82-03847C02179D}" name="Bộ môn" dataDxfId="0"/>
-    <tableColumn id="12" xr3:uid="{A8AC31BB-0627-413E-BF2A-A9A97551D1AB}" name="Vai trò" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{D3840594-A024-4955-8E82-03847C02179D}" name="Bộ môn" dataDxfId="8"/>
+    <tableColumn id="12" xr3:uid="{A8AC31BB-0627-413E-BF2A-A9A97551D1AB}" name="Vai trò" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="Kiểu Bảng 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6A2D9191-4CE9-4E69-B805-9A4FDC6A0840}" name="Table3" displayName="Table3" ref="A2:B8" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6A2D9191-4CE9-4E69-B805-9A4FDC6A0840}" name="Table3" displayName="Table3" ref="A2:B8" totalsRowShown="0" headerRowDxfId="6" dataDxfId="4" headerRowBorderDxfId="5" tableBorderDxfId="3" totalsRowBorderDxfId="2">
   <autoFilter ref="A2:B8" xr:uid="{6A2D9191-4CE9-4E69-B805-9A4FDC6A0840}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{D2BE2BAF-1CF2-404E-A970-E88DD633B934}" name="STT" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{DE96B05D-46C5-4461-B6A5-8698828DDFE5}" name="Tên chức danh" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{D2BE2BAF-1CF2-404E-A970-E88DD633B934}" name="STT" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{DE96B05D-46C5-4461-B6A5-8698828DDFE5}" name="Tên chức danh" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Kiểu Bảng 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1013,10 +1046,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A55C3C43-D4B0-4F2A-9605-24C832C66003}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1025,19 +1058,19 @@
     <col min="2" max="2" width="17.28515625" customWidth="1"/>
     <col min="3" max="3" width="32.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="5" max="5" width="34.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
     </row>
     <row r="2" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
@@ -1056,7 +1089,7 @@
         <v>9</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1064,19 +1097,79 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="14" t="s">
-        <v>14</v>
-      </c>
       <c r="D3" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="15">
+        <v>2</v>
+      </c>
+      <c r="B4" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>13</v>
+      <c r="C4" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="18">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="18">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1085,17 +1178,20 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3" xr:uid="{473363A2-96C3-48E0-A81E-BBB7A510E3D1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F6" xr:uid="{473363A2-96C3-48E0-A81E-BBB7A510E3D1}">
       <formula1>Chucdanh</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" xr:uid="{C1151826-67DF-4CEC-9090-F88781495C60}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{0652ED9E-E3C2-4507-ABA6-A1AE0C594574}"/>
+    <hyperlink ref="C6" r:id="rId3" xr:uid="{1A5C6913-5A5B-40C5-9D5B-D42326764BD5}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{66F7E43B-D6AA-4BAC-9405-6E0FD433F25B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1105,7 +1201,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1115,10 +1211,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="17"/>
+      <c r="B1" s="21"/>
     </row>
     <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -1165,7 +1261,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1173,7 +1269,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/MonthlyStatement/assets/FileImport/DanhSachNguoiDung-Import.xlsx
+++ b/MonthlyStatement/assets/FileImport/DanhSachNguoiDung-Import.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\darkr\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F6A939-0ACF-4AD3-A6F3-1BD6A7528DCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5CDC311-33D4-4002-8DD3-3CCF0C72F773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{D863059B-1735-4B2D-BB81-759A3D9E481F}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="60">
   <si>
     <r>
       <t xml:space="preserve">DANH SÁCH NHÂN VIÊN
@@ -87,46 +87,154 @@
     <t>Bộ môn</t>
   </si>
   <si>
+    <t>Vai trò</t>
+  </si>
+  <si>
+    <t>Quản trị dự án phần mềm</t>
+  </si>
+  <si>
+    <t>Object Oriented Programming and C#</t>
+  </si>
+  <si>
+    <t>Chưa cấp quyền</t>
+  </si>
+  <si>
+    <t>Hoàng Lê Minh</t>
+  </si>
+  <si>
+    <t>Bùi Minh Phụng</t>
+  </si>
+  <si>
+    <t>Lý Thị Huyền Châu</t>
+  </si>
+  <si>
+    <t>Phạm Ngọc Duy</t>
+  </si>
+  <si>
+    <t>Nguyễn Đắc Quỳnh Mi</t>
+  </si>
+  <si>
+    <t>Trần Quang Nhật</t>
+  </si>
+  <si>
+    <t>Trương Khắc Tùng</t>
+  </si>
+  <si>
+    <t>Trần Ngọc Việt</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Diễm Anh</t>
+  </si>
+  <si>
+    <t>Tống Hùng Anh</t>
+  </si>
+  <si>
+    <t>Nguyễn Hồng Diên</t>
+  </si>
+  <si>
+    <t>Nguyễn Thái Hải</t>
+  </si>
+  <si>
+    <t>Lê Công Hiếu</t>
+  </si>
+  <si>
+    <t>Đặng Đình Hòa</t>
+  </si>
+  <si>
+    <t>Huỳnh Thái Học</t>
+  </si>
+  <si>
+    <t>Phan Thị Hồng</t>
+  </si>
+  <si>
+    <t>Hà Đồng Hưng</t>
+  </si>
+  <si>
+    <t>Ngô Quốc Huy</t>
+  </si>
+  <si>
+    <t>Mai Thị Kiều Linh</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Mỹ Linh</t>
+  </si>
+  <si>
+    <t>minh.hl@vlu.edu.vn</t>
+  </si>
+  <si>
+    <t>phung.bm@vlu.edu.vn</t>
+  </si>
+  <si>
+    <t>chau.lth@vlu.edu.vn</t>
+  </si>
+  <si>
+    <t>duy.pn@vlu.edu.vn</t>
+  </si>
+  <si>
+    <t>mi.ndq@vlu.edu.vn</t>
+  </si>
+  <si>
+    <t>nhat.tq@vlu.edu.vn</t>
+  </si>
+  <si>
+    <t>tung.tk@vlu.edu.vn</t>
+  </si>
+  <si>
+    <t>viet.tn@vlu.edu.vn</t>
+  </si>
+  <si>
+    <t>anh.ntd@vlu.edu.vn</t>
+  </si>
+  <si>
+    <t>anh.th@vlu.edu.vn</t>
+  </si>
+  <si>
+    <t>dien.nh@vlu.edu.vn</t>
+  </si>
+  <si>
+    <t>hai.nt@vlu.edu.vn</t>
+  </si>
+  <si>
+    <t>hieu.lc@vlu.edu.vn</t>
+  </si>
+  <si>
+    <t>hoa.dd@vlu.edu.vn</t>
+  </si>
+  <si>
+    <t>hoc.ht@vlu.edu.vn</t>
+  </si>
+  <si>
+    <t>hong.pt@vlu.edu.vn</t>
+  </si>
+  <si>
+    <t>hung.hd@vlu.edu.vn</t>
+  </si>
+  <si>
+    <t>huy.nq@vlu.edu.vn</t>
+  </si>
+  <si>
+    <t>linh.mtk@vlu.edu.vn</t>
+  </si>
+  <si>
+    <t>linh.ntm@vlu.edu.vn</t>
+  </si>
+  <si>
+    <t>Công nghệ phần mềm</t>
+  </si>
+  <si>
+    <t>Hệ thống thông tin</t>
+  </si>
+  <si>
+    <t>Trí tuệ nhân tạo</t>
+  </si>
+  <si>
+    <t>Khoa học dữ liệu</t>
+  </si>
+  <si>
+    <t>Giảng viên</t>
+  </si>
+  <si>
     <t>Công nghệ thông tin</t>
-  </si>
-  <si>
-    <t>Vai trò</t>
-  </si>
-  <si>
-    <t>Nhân viên - Giảng viên</t>
-  </si>
-  <si>
-    <t>Quản trị dự án phần mềm</t>
-  </si>
-  <si>
-    <t>Lê Hữu Hiệp</t>
-  </si>
-  <si>
-    <t>hiep.197pm31152@vanlanguni.vn</t>
-  </si>
-  <si>
-    <t>Nguyễn Đức Dũng</t>
-  </si>
-  <si>
-    <t>dung.197pm21901@vanlanguni.vn</t>
-  </si>
-  <si>
-    <t>Object Oriented Programming and C#</t>
-  </si>
-  <si>
-    <t>Trần Anh Khoa</t>
-  </si>
-  <si>
-    <t>khoa.197pm31170@vanlanguni.vn</t>
-  </si>
-  <si>
-    <t>Chưa cấp quyền</t>
-  </si>
-  <si>
-    <t>Lê Thị Lợi</t>
-  </si>
-  <si>
-    <t>loi.197pm09475@vanlanguni.vn</t>
   </si>
 </sst>
 </file>
@@ -136,7 +244,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[&lt;=999999][$-1000000]###\-###;[$-1000000]\(##\)\ ###\-###"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,6 +307,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -220,7 +346,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -304,12 +430,51 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -348,20 +513,23 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -377,7 +545,17 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -569,19 +747,21 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
+        <left/>
         <right style="thin">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
+        <top/>
         <bottom style="thin">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </bottom>
         <vertical/>
         <horizontal/>
@@ -608,19 +788,23 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
+        <left/>
         <right style="thin">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </right>
         <top style="thin">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </top>
         <bottom style="thin">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </bottom>
         <vertical/>
         <horizontal/>
@@ -724,26 +908,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{AB9EF11F-0F98-4C6F-8F92-9C38C4F4C534}" name="Table4" displayName="Table4" ref="A2:F4" totalsRowShown="0" headerRowDxfId="16" headerRowBorderDxfId="15" tableBorderDxfId="14" totalsRowBorderDxfId="13">
-  <autoFilter ref="A2:F4" xr:uid="{AB9EF11F-0F98-4C6F-8F92-9C38C4F4C534}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{AB9EF11F-0F98-4C6F-8F92-9C38C4F4C534}" name="Table4" displayName="Table4" ref="A2:F22" totalsRowShown="0" headerRowDxfId="17" headerRowBorderDxfId="16" tableBorderDxfId="15" totalsRowBorderDxfId="14">
+  <autoFilter ref="A2:F22" xr:uid="{AB9EF11F-0F98-4C6F-8F92-9C38C4F4C534}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{BD8030A3-5E0B-43AD-8C5A-13ACC4A69AFB}" name="STT" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{B7CC9FE9-4234-4AE1-87BF-F151D48C284C}" name="Họ và Tên" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{346C4246-93D0-4B3F-838F-C239E287AF28}" name="Email" dataDxfId="10" dataCellStyle="Hyperlink"/>
-    <tableColumn id="4" xr3:uid="{55494398-1BA4-4E7C-9A41-E5921E957345}" name="Khoa" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{D3840594-A024-4955-8E82-03847C02179D}" name="Bộ môn" dataDxfId="8"/>
-    <tableColumn id="12" xr3:uid="{A8AC31BB-0627-413E-BF2A-A9A97551D1AB}" name="Vai trò" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{BD8030A3-5E0B-43AD-8C5A-13ACC4A69AFB}" name="STT" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{B7CC9FE9-4234-4AE1-87BF-F151D48C284C}" name="Họ và Tên" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{346C4246-93D0-4B3F-838F-C239E287AF28}" name="Email" dataDxfId="11" dataCellStyle="Hyperlink"/>
+    <tableColumn id="4" xr3:uid="{55494398-1BA4-4E7C-9A41-E5921E957345}" name="Khoa" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{D3840594-A024-4955-8E82-03847C02179D}" name="Bộ môn" dataDxfId="9"/>
+    <tableColumn id="12" xr3:uid="{A8AC31BB-0627-413E-BF2A-A9A97551D1AB}" name="Vai trò" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="Kiểu Bảng 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6A2D9191-4CE9-4E69-B805-9A4FDC6A0840}" name="Table3" displayName="Table3" ref="A2:B8" totalsRowShown="0" headerRowDxfId="6" dataDxfId="4" headerRowBorderDxfId="5" tableBorderDxfId="3" totalsRowBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6A2D9191-4CE9-4E69-B805-9A4FDC6A0840}" name="Table3" displayName="Table3" ref="A2:B8" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
   <autoFilter ref="A2:B8" xr:uid="{6A2D9191-4CE9-4E69-B805-9A4FDC6A0840}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{D2BE2BAF-1CF2-404E-A970-E88DD633B934}" name="STT" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{DE96B05D-46C5-4461-B6A5-8698828DDFE5}" name="Tên chức danh" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{D2BE2BAF-1CF2-404E-A970-E88DD633B934}" name="STT" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{DE96B05D-46C5-4461-B6A5-8698828DDFE5}" name="Tên chức danh" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="Kiểu Bảng 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1038,7 +1222,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1046,31 +1230,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A55C3C43-D4B0-4F2A-9605-24C832C66003}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="34.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
     </row>
     <row r="2" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
@@ -1089,87 +1273,381 @@
         <v>9</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="14">
+        <v>2</v>
+      </c>
+      <c r="B4" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="C4" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <v>3</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="14">
+        <v>4</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>5</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="14">
+        <v>6</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>7</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="14">
+        <v>8</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
+        <v>9</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="14">
         <v>10</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="B12" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
+        <v>11</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="14">
+        <v>12</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
         <v>13</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="15">
-        <v>2</v>
-      </c>
-      <c r="B4" s="16" t="s">
+      <c r="B15" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="14">
+        <v>14</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="10">
+        <v>15</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="14">
         <v>16</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="B18" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="10">
         <v>17</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="16" t="s">
+      <c r="B19" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="14">
         <v>18</v>
       </c>
-      <c r="F4" s="16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="18">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="B20" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="10">
         <v>19</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="B21" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="14">
         <v>20</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="18">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>21</v>
+      <c r="B22" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1177,21 +1655,20 @@
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
+  <conditionalFormatting sqref="C3:C22">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F6" xr:uid="{473363A2-96C3-48E0-A81E-BBB7A510E3D1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F22" xr:uid="{473363A2-96C3-48E0-A81E-BBB7A510E3D1}">
       <formula1>Chucdanh</formula1>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{C1151826-67DF-4CEC-9090-F88781495C60}"/>
-    <hyperlink ref="C4" r:id="rId2" xr:uid="{0652ED9E-E3C2-4507-ABA6-A1AE0C594574}"/>
-    <hyperlink ref="C6" r:id="rId3" xr:uid="{1A5C6913-5A5B-40C5-9D5B-D42326764BD5}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{66F7E43B-D6AA-4BAC-9405-6E0FD433F25B}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1211,10 +1688,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="21"/>
+      <c r="B1" s="24"/>
     </row>
     <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -1261,7 +1738,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1269,7 +1746,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1285,6 +1762,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Tài liệu" ma:contentTypeID="0x010100FFEEB7CE87815E43960D07200F9F436B" ma:contentTypeVersion="4" ma:contentTypeDescription="Tạo tài liệu mới." ma:contentTypeScope="" ma:versionID="95040107d95985d946c9621c0cf5e169">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="094f4d46-5677-48c4-9c4e-de24b796b4d3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8ab1822bcafc1fd34adf2811fb5301bc" ns2:_="">
     <xsd:import namespace="094f4d46-5677-48c4-9c4e-de24b796b4d3"/>
@@ -1428,16 +1914,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{704E9732-CDD5-43E7-B34A-517BCD8EC75D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AFD549BC-75E3-4A8E-AFE7-19B278AE57ED}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1453,12 +1938,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{704E9732-CDD5-43E7-B34A-517BCD8EC75D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/MonthlyStatement/assets/FileImport/DanhSachNguoiDung-Import.xlsx
+++ b/MonthlyStatement/assets/FileImport/DanhSachNguoiDung-Import.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\darkr\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NDD\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5CDC311-33D4-4002-8DD3-3CCF0C72F773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{746B49E8-9249-4225-BB53-0860992CF7B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{D863059B-1735-4B2D-BB81-759A3D9E481F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{D863059B-1735-4B2D-BB81-759A3D9E481F}"/>
   </bookViews>
   <sheets>
     <sheet name="Thông Tin" sheetId="1" r:id="rId1"/>
@@ -1233,7 +1233,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
